--- a/data/day_7_games.xlsx
+++ b/data/day_7_games.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>name</t>
   </si>
@@ -36,12 +36,6 @@
     <t>Settlers of Catan</t>
   </si>
   <si>
-    <t>Settlers of Catan Sailors</t>
-  </si>
-  <si>
-    <t>Settlers of Catan Traders</t>
-  </si>
-  <si>
     <t>Splendor</t>
   </si>
   <si>
@@ -124,13 +118,28 @@
   </si>
   <si>
     <t>length</t>
+  </si>
+  <si>
+    <t>num_votes</t>
+  </si>
+  <si>
+    <t>avg_rating</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>Settlers of Catan Cities and Traders</t>
+  </si>
+  <si>
+    <t>Settlers of Catan Seafarers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -265,8 +274,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,8 +461,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -562,6 +583,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD1D4D7"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD1D4D7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -607,8 +639,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -930,18 +969,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -949,15 +986,24 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>23</v>
@@ -973,9 +1019,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>37</v>
@@ -990,10 +1036,16 @@
         <f t="shared" ref="E3:E31" si="0">B3+C3</f>
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="1">
+        <v>6.28</v>
+      </c>
+      <c r="G3" s="1">
+        <v>26939</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>37</v>
@@ -1009,9 +1061,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>37</v>
@@ -1027,7 +1079,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1044,10 +1096,16 @@
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="2">
+        <v>7.15</v>
+      </c>
+      <c r="G6" s="2">
+        <v>102347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>29</v>
@@ -1062,10 +1120,16 @@
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="2">
+        <v>7.15</v>
+      </c>
+      <c r="G7" s="2">
+        <v>16479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>29</v>
@@ -1080,10 +1144,17 @@
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="2">
+        <v>7.46</v>
+      </c>
+      <c r="G8" s="2">
+        <v>17267</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>27.5</v>
@@ -1098,10 +1169,16 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="2">
+        <v>7.45</v>
+      </c>
+      <c r="G9" s="2">
+        <v>59423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>27.5</v>
@@ -1116,10 +1193,16 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>29.5</v>
@@ -1134,10 +1217,16 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="2">
+        <v>7.55</v>
+      </c>
+      <c r="G11" s="2">
+        <v>59206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>30</v>
@@ -1152,10 +1241,16 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="2">
+        <v>8.01</v>
+      </c>
+      <c r="G12" s="2">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>30</v>
@@ -1170,10 +1265,16 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="2">
+        <v>6.31</v>
+      </c>
+      <c r="G13" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>22.5</v>
@@ -1189,9 +1290,9 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>26</v>
@@ -1206,10 +1307,16 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>27.5</v>
@@ -1224,10 +1331,16 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="2">
+        <v>6.92</v>
+      </c>
+      <c r="G16" s="2">
+        <v>5619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>31</v>
@@ -1242,10 +1355,16 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="2">
+        <v>7.21</v>
+      </c>
+      <c r="G17" s="2">
+        <v>8785</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>11</v>
@@ -1261,9 +1380,9 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>26.5</v>
@@ -1279,9 +1398,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -1297,9 +1416,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21">
         <v>18</v>
@@ -1314,10 +1433,16 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="2">
+        <v>6.71</v>
+      </c>
+      <c r="G21" s="2">
+        <v>7876</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B22">
         <v>28</v>
@@ -1332,10 +1457,16 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="2">
+        <v>7.27</v>
+      </c>
+      <c r="G22" s="2">
+        <v>35611</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B23">
         <v>19</v>
@@ -1350,10 +1481,16 @@
         <f t="shared" si="0"/>
         <v>31.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="2">
+        <v>5.31</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <v>35</v>
@@ -1368,10 +1505,16 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="2">
+        <v>5.64</v>
+      </c>
+      <c r="G24" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B25">
         <v>28</v>
@@ -1386,10 +1529,16 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="2">
+        <v>6.82</v>
+      </c>
+      <c r="G25" s="2">
+        <v>15622</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B26">
         <v>28</v>
@@ -1404,10 +1553,16 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="2">
+        <v>7.25</v>
+      </c>
+      <c r="G26" s="2">
+        <v>51148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>18.5</v>
@@ -1423,9 +1578,9 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>31</v>
@@ -1441,9 +1596,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B29">
         <v>13.5</v>
@@ -1458,10 +1613,16 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="2">
+        <v>6.58</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B30">
         <v>14.5</v>
@@ -1476,10 +1637,16 @@
         <f t="shared" si="0"/>
         <v>25.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="2">
+        <v>7.04</v>
+      </c>
+      <c r="G30" s="2">
+        <v>38487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31">
         <v>37</v>
@@ -1494,8 +1661,15 @@
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
+      <c r="F31" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1258</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>